--- a/Tests/Thurst Test/MotorTest.xlsx
+++ b/Tests/Thurst Test/MotorTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>PWM</t>
   </si>
@@ -74,6 +74,12 @@
   <si>
     <t>Estimated Torque [Nm]</t>
   </si>
+  <si>
+    <t>Motor Speed2 [rad2/s2]</t>
+  </si>
+  <si>
+    <t>Speed2[rad22/s]</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +145,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,11 +398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198551808"/>
-        <c:axId val="198553600"/>
+        <c:axId val="174385792"/>
+        <c:axId val="175440256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198551808"/>
+        <c:axId val="174385792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,12 +412,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198553600"/>
+        <c:crossAx val="175440256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198553600"/>
+        <c:axId val="175440256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,13 +428,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198551808"/>
+        <c:crossAx val="174385792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -585,11 +595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198844800"/>
-        <c:axId val="198846336"/>
+        <c:axId val="175477504"/>
+        <c:axId val="175479040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198844800"/>
+        <c:axId val="175477504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,12 +609,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198846336"/>
+        <c:crossAx val="175479040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198846336"/>
+        <c:axId val="175479040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198844800"/>
+        <c:crossAx val="175477504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -650,10 +660,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -665,11 +671,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$48</c:f>
+              <c:f>Hoja1!$I$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Thrust Force [N]</c:v>
+                  <c:v>Torque [Nm]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -679,125 +685,179 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.37248198363237089"/>
-                  <c:y val="-7.8181039629222682E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$F$49:$F$63</c:f>
+              <c:f>Hoja1!$D$93:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7901721</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8970025</c:v>
+                  <c:v>2904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10208025</c:v>
+                  <c:v>3116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10804369</c:v>
+                  <c:v>3308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12201049</c:v>
+                  <c:v>3416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13024881</c:v>
+                  <c:v>3655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14175225</c:v>
+                  <c:v>3755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15116544</c:v>
+                  <c:v>3916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16483600</c:v>
+                  <c:v>4045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5017600</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5313025</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5978025</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6225025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6682225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7102225</c:v>
+                  <c:v>4240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$H$49:$H$63</c:f>
+              <c:f>Hoja1!$I$93:$I$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.11948</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26678</c:v>
+                  <c:v>2.0799999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4730000000000001</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5712000000000002</c:v>
+                  <c:v>2.8760000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7872399999999999</c:v>
+                  <c:v>3.0620000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9149</c:v>
+                  <c:v>3.3759999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1113</c:v>
+                  <c:v>3.4380000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2389600000000001</c:v>
+                  <c:v>4.1260000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4550000000000001</c:v>
+                  <c:v>4.2499999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67758000000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72667999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83470000000000011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87397999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95254000000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.97218000000000004</c:v>
+                  <c:v>4.6260000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Torque [Nm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$93:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$93:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1726949774464002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5014995803424003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8192691437856E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0063619101824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4417577494849999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.632665580885E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9508532865824002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2154368556850001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6316661670400001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198863488"/>
-        <c:axId val="198889856"/>
+        <c:axId val="175978368"/>
+        <c:axId val="175979904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198863488"/>
+        <c:axId val="175978368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,12 +886,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198889856"/>
+        <c:crossAx val="175979904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198889856"/>
+        <c:axId val="175979904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198863488"/>
+        <c:crossAx val="175978368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -856,6 +916,16 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -878,10 +948,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -893,11 +959,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$92</c:f>
+              <c:f>Hoja1!$I$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torque [Nm]</c:v>
+                  <c:v>Thrust Force [N]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -907,95 +973,239 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.34296609798775152"/>
-                  <c:y val="-7.9062773403324585E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="0.000000E+00" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$E$93:$E$102</c:f>
+              <c:f>Hoja1!$D$49:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8433216</c:v>
+                  <c:v>2995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9709456</c:v>
+                  <c:v>3195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10942864</c:v>
+                  <c:v>3287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11669056</c:v>
+                  <c:v>3493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13359025</c:v>
+                  <c:v>3609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14100025</c:v>
+                  <c:v>3765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15335056</c:v>
+                  <c:v>3888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16362025</c:v>
+                  <c:v>4060</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17977600</c:v>
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$H$93:$H$102</c:f>
+              <c:f>Hoja1!$I$49:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.11948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0799999999999999E-2</c:v>
+                  <c:v>1.26678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>1.4730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8760000000000001E-2</c:v>
+                  <c:v>1.5712000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0620000000000001E-2</c:v>
+                  <c:v>1.7872399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3759999999999998E-2</c:v>
+                  <c:v>1.9149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4380000000000001E-2</c:v>
+                  <c:v>2.1113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1260000000000005E-2</c:v>
+                  <c:v>2.2389600000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2499999999999996E-2</c:v>
+                  <c:v>2.4550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6260000000000003E-2</c:v>
+                  <c:v>0.67758000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83470000000000011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87397999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95254000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97218000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$49:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$49:$J$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.1517943615650001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3075156941250001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.487972764125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5748988472850001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7784859074850001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8985717789650001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0662516721249999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2034630361600001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4027319540000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73139046400000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77445308912499999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87138681412500008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90739076912500005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97403452712500005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0352558271250001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,11 +1220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199513216"/>
-        <c:axId val="199514752"/>
+        <c:axId val="175986560"/>
+        <c:axId val="175988096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199513216"/>
+        <c:axId val="175986560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,12 +1234,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199514752"/>
+        <c:crossAx val="175988096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199514752"/>
+        <c:axId val="175988096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199513216"/>
+        <c:crossAx val="175986560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1076,6 +1286,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1087,11 +1301,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$92</c:f>
+              <c:f>Hoja1!$I$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Torque [Nm]</c:v>
+                  <c:v>Thrust Force [N]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1101,179 +1315,125 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.34996019247594051"/>
+                  <c:y val="-0.11163713910761155"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$93:$D$102</c:f>
+              <c:f>Hoja1!$F$49:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>86652.067064200222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2904</c:v>
+                  <c:v>98367.331353201735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3116</c:v>
+                  <c:v>111943.52051825577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3308</c:v>
+                  <c:v>118483.16425932603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3416</c:v>
+                  <c:v>133799.47434256325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3655</c:v>
+                  <c:v>142833.80315696128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3755</c:v>
+                  <c:v>155448.73671825763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3916</c:v>
+                  <c:v>165771.45465740105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4045</c:v>
+                  <c:v>180762.90122866284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4240</c:v>
+                  <c:v>55024.141158784398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58263.838803441991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65556.379833135783</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68265.037929879196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73278.796965632602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77884.612352807628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$H$93:$H$102</c:f>
+              <c:f>Hoja1!$I$49:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.11948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0799999999999999E-2</c:v>
+                  <c:v>1.26678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>1.4730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8760000000000001E-2</c:v>
+                  <c:v>1.5712000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0620000000000001E-2</c:v>
+                  <c:v>1.7872399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3759999999999998E-2</c:v>
+                  <c:v>1.9149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4380000000000001E-2</c:v>
+                  <c:v>2.1113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1260000000000005E-2</c:v>
+                  <c:v>2.2389600000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2499999999999996E-2</c:v>
+                  <c:v>2.4550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6260000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$92</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimated Torque [Nm]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$D$93:$D$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2904</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3308</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3416</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3655</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3755</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4045</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4240</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$I$93:$I$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1726949774464002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5014995803424003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8192691437856E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0063619101824E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4417577494849999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.632665580885E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9508532865824002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2154368556850001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6316661670400001E-2</c:v>
+                  <c:v>0.67758000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83470000000000011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87397999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95254000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97218000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,11 +1448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199544192"/>
-        <c:axId val="199545984"/>
+        <c:axId val="216855296"/>
+        <c:axId val="216778624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199544192"/>
+        <c:axId val="216855296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,12 +1462,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199545984"/>
+        <c:crossAx val="216778624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199545984"/>
+        <c:axId val="216778624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199544192"/>
+        <c:crossAx val="216855296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1332,16 +1492,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr u="none"/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1373,255 +1523,100 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$H$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Thrust Force [N]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.32610061242344707"/>
+                  <c:y val="1.3414260717410323E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$D$49:$D$63</c:f>
+              <c:f>Hoja1!$G$93:$G$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2811</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2995</c:v>
+                  <c:v>23120.140485815889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3195</c:v>
+                  <c:v>26619.02490827319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3287</c:v>
+                  <c:v>30000.482970811743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3493</c:v>
+                  <c:v>31991.3795705995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3609</c:v>
+                  <c:v>36624.525537295209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3765</c:v>
+                  <c:v>38656.019109852772</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3888</c:v>
+                  <c:v>42041.926719042167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4060</c:v>
+                  <c:v>44857.420541870575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2240</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2305</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2445</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2495</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2585</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2665</c:v>
+                  <c:v>49286.611133617793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$H$49:$H$63</c:f>
+              <c:f>Hoja1!$I$93:$I$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.11948</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26678</c:v>
+                  <c:v>2.0799999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4730000000000001</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5712000000000002</c:v>
+                  <c:v>2.8760000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7872399999999999</c:v>
+                  <c:v>3.0620000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9149</c:v>
+                  <c:v>3.3759999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1113</c:v>
+                  <c:v>3.4380000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2389600000000001</c:v>
+                  <c:v>4.1260000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4550000000000001</c:v>
+                  <c:v>4.2499999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67758000000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72667999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83470000000000011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87397999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95254000000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.97218000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$I$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimated Force</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$D$49:$D$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2811</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3195</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3493</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3609</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3765</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3888</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4060</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2240</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2305</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2445</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2495</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2585</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$I$49:$I$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1.1517943615650001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3075156941250001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.487972764125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5748988472850001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7784859074850001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8985717789650001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0662516721249999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2034630361600001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4027319540000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.73139046400000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.77445308912499999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.87138681412500008</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.90739076912500005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.97403452712500005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0352558271250001</c:v>
+                  <c:v>4.6260000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,11 +1631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199448064"/>
-        <c:axId val="199449600"/>
+        <c:axId val="207590528"/>
+        <c:axId val="201684480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199448064"/>
+        <c:axId val="207590528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,12 +1645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199449600"/>
+        <c:crossAx val="201684480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199449600"/>
+        <c:axId val="201684480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,7 +1661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199448064"/>
+        <c:crossAx val="207590528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1752,66 +1747,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>544284</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>119741</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="4 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1088570</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>160567</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="9 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>40821</xdr:colOff>
       <xdr:row>104</xdr:row>
@@ -1834,7 +1769,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1856,6 +1791,66 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="5 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2162,38 +2157,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I93" activeCellId="1" sqref="G93:G102 I93:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -2638,21 +2633,21 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="4"/>
@@ -2661,19 +2656,19 @@
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2926,21 +2921,21 @@
       <c r="N43" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
@@ -2955,16 +2950,19 @@
       <c r="E48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2983,18 +2981,22 @@
         <v>294.36723164136362</v>
       </c>
       <c r="F49">
+        <f>E49^2</f>
+        <v>86652.067064200222</v>
+      </c>
+      <c r="G49">
         <f>D49^2</f>
         <v>7901721</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>114</v>
       </c>
-      <c r="H49" s="2">
-        <f>G49*0.001*9.82</f>
+      <c r="I49" s="2">
+        <f>H49*0.001*9.82</f>
         <v>1.11948</v>
       </c>
-      <c r="I49">
-        <f>F49*0.000000145765</f>
+      <c r="J49">
+        <f>G49*0.000000145765</f>
         <v>1.1517943615650001</v>
       </c>
     </row>
@@ -3013,18 +3015,22 @@
         <v>313.63566658338101</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F63" si="7">D50^2</f>
+        <f t="shared" ref="F50:F63" si="7">E50^2</f>
+        <v>98367.331353201735</v>
+      </c>
+      <c r="G50">
+        <f>D50^2</f>
         <v>8970025</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>129</v>
       </c>
-      <c r="H50" s="2">
-        <f t="shared" ref="H50:H56" si="8">G50*0.001*9.82</f>
+      <c r="I50" s="2">
+        <f t="shared" ref="I50:I56" si="8">H50*0.001*9.82</f>
         <v>1.26678</v>
       </c>
-      <c r="I50">
-        <f t="shared" ref="I50:I63" si="9">F50*0.000000145765</f>
+      <c r="J50">
+        <f t="shared" ref="J50:J63" si="9">G50*0.000000145765</f>
         <v>1.3075156941250001</v>
       </c>
     </row>
@@ -3044,16 +3050,20 @@
       </c>
       <c r="F51">
         <f t="shared" si="7"/>
+        <v>111943.52051825577</v>
+      </c>
+      <c r="G51">
+        <f>D51^2</f>
         <v>10208025</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>150</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="2">
         <f t="shared" si="8"/>
         <v>1.4730000000000001</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <f t="shared" si="9"/>
         <v>1.487972764125</v>
       </c>
@@ -3074,16 +3084,20 @@
       </c>
       <c r="F52">
         <f t="shared" si="7"/>
+        <v>118483.16425932603</v>
+      </c>
+      <c r="G52">
+        <f>D52^2</f>
         <v>10804369</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>160</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <f t="shared" si="8"/>
         <v>1.5712000000000002</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <f t="shared" si="9"/>
         <v>1.5748988472850001</v>
       </c>
@@ -3104,16 +3118,20 @@
       </c>
       <c r="F53">
         <f t="shared" si="7"/>
+        <v>133799.47434256325</v>
+      </c>
+      <c r="G53">
+        <f>D53^2</f>
         <v>12201049</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
         <v>182</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <f t="shared" si="8"/>
         <v>1.7872399999999999</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <f t="shared" si="9"/>
         <v>1.7784859074850001</v>
       </c>
@@ -3134,16 +3152,20 @@
       </c>
       <c r="F54">
         <f t="shared" si="7"/>
+        <v>142833.80315696128</v>
+      </c>
+      <c r="G54">
+        <f>D54^2</f>
         <v>13024881</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>195</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <f t="shared" si="8"/>
         <v>1.9149</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <f t="shared" si="9"/>
         <v>1.8985717789650001</v>
       </c>
@@ -3164,16 +3186,20 @@
       </c>
       <c r="F55">
         <f t="shared" si="7"/>
+        <v>155448.73671825763</v>
+      </c>
+      <c r="G55">
+        <f>D55^2</f>
         <v>14175225</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>215</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <f t="shared" si="8"/>
         <v>2.1113</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <f t="shared" si="9"/>
         <v>2.0662516721249999</v>
       </c>
@@ -3194,16 +3220,20 @@
       </c>
       <c r="F56">
         <f t="shared" si="7"/>
+        <v>165771.45465740105</v>
+      </c>
+      <c r="G56">
+        <f>D56^2</f>
         <v>15116544</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>228</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <f t="shared" si="8"/>
         <v>2.2389600000000001</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <f t="shared" si="9"/>
         <v>2.2034630361600001</v>
       </c>
@@ -3224,16 +3254,20 @@
       </c>
       <c r="F57">
         <f t="shared" si="7"/>
+        <v>180762.90122866284</v>
+      </c>
+      <c r="G57">
+        <f>D57^2</f>
         <v>16483600</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>250</v>
       </c>
-      <c r="H57" s="2">
-        <f t="shared" ref="H57:H63" si="10">G57*0.001*9.82</f>
+      <c r="I57" s="2">
+        <f t="shared" ref="I57:I63" si="10">H57*0.001*9.82</f>
         <v>2.4550000000000001</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <f t="shared" si="9"/>
         <v>2.4027319540000001</v>
       </c>
@@ -3254,16 +3288,20 @@
       </c>
       <c r="F58">
         <f t="shared" si="7"/>
+        <v>55024.141158784398</v>
+      </c>
+      <c r="G58">
+        <f>D58^2</f>
         <v>5017600</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>69</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <f t="shared" si="10"/>
         <v>0.67758000000000007</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <f t="shared" si="9"/>
         <v>0.73139046400000007</v>
       </c>
@@ -3284,16 +3322,20 @@
       </c>
       <c r="F59">
         <f t="shared" si="7"/>
+        <v>58263.838803441991</v>
+      </c>
+      <c r="G59">
+        <f>D59^2</f>
         <v>5313025</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>74</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <f t="shared" si="10"/>
         <v>0.72667999999999999</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <f t="shared" si="9"/>
         <v>0.77445308912499999</v>
       </c>
@@ -3314,16 +3356,20 @@
       </c>
       <c r="F60">
         <f t="shared" si="7"/>
+        <v>65556.379833135783</v>
+      </c>
+      <c r="G60">
+        <f>D60^2</f>
         <v>5978025</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>85</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <f t="shared" si="10"/>
         <v>0.83470000000000011</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <f t="shared" si="9"/>
         <v>0.87138681412500008</v>
       </c>
@@ -3344,16 +3390,20 @@
       </c>
       <c r="F61">
         <f t="shared" si="7"/>
+        <v>68265.037929879196</v>
+      </c>
+      <c r="G61">
+        <f>D61^2</f>
         <v>6225025</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>89</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <f t="shared" si="10"/>
         <v>0.87397999999999998</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <f t="shared" si="9"/>
         <v>0.90739076912500005</v>
       </c>
@@ -3374,16 +3424,20 @@
       </c>
       <c r="F62">
         <f t="shared" si="7"/>
+        <v>73278.796965632602</v>
+      </c>
+      <c r="G62">
+        <f>D62^2</f>
         <v>6682225</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>97</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <f t="shared" si="10"/>
         <v>0.95254000000000005</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <f t="shared" si="9"/>
         <v>0.97403452712500005</v>
       </c>
@@ -3404,20 +3458,23 @@
       </c>
       <c r="F63">
         <f t="shared" si="7"/>
+        <v>77884.612352807628</v>
+      </c>
+      <c r="G63">
+        <f>D63^2</f>
         <v>7102225</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H63" s="2">
         <v>99</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <f t="shared" si="10"/>
         <v>0.97218000000000004</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <f t="shared" si="9"/>
         <v>1.0352558271250001</v>
       </c>
-      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J64" s="2"/>
@@ -3489,21 +3546,21 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C92" s="7" t="s">
@@ -3518,13 +3575,16 @@
       <c r="F92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3541,14 +3601,18 @@
         <f t="shared" ref="F93:F102" si="11">D93*PI()/60</f>
         <v>0</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93">
+        <f>F93^2</f>
         <v>0</v>
       </c>
       <c r="H93" s="2">
-        <f>G93/5</f>
         <v>0</v>
       </c>
       <c r="I93" s="2">
+        <f>H93/5</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
         <f>E93*0.000000002576354</f>
         <v>0</v>
       </c>
@@ -3568,15 +3632,19 @@
         <f t="shared" si="11"/>
         <v>152.05308443374599</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94">
+        <f t="shared" ref="G94:G102" si="12">F94^2</f>
+        <v>23120.140485815889</v>
+      </c>
+      <c r="H94" s="2">
         <v>0.104</v>
       </c>
-      <c r="H94" s="2">
-        <f>G94/5</f>
+      <c r="I94" s="2">
+        <f>H94/5</f>
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="I94" s="2">
-        <f t="shared" ref="I94:I102" si="12">E94*0.000000002576354</f>
+      <c r="J94" s="2">
+        <f>E94*0.000000002576354</f>
         <v>2.1726949774464002E-2</v>
       </c>
     </row>
@@ -3595,15 +3663,19 @@
         <f t="shared" si="11"/>
         <v>163.15337847642994</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95">
+        <f t="shared" si="12"/>
+        <v>26619.02490827319</v>
+      </c>
+      <c r="H95" s="2">
         <v>0.125</v>
       </c>
-      <c r="H95" s="2">
-        <f t="shared" ref="H95:H102" si="14">G95/5</f>
+      <c r="I95" s="2">
+        <f t="shared" ref="I95:I102" si="14">H95/5</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I95" s="2">
-        <f t="shared" si="12"/>
+      <c r="J95" s="2">
+        <f>E95*0.000000002576354</f>
         <v>2.5014995803424003E-2</v>
       </c>
     </row>
@@ -3622,19 +3694,23 @@
         <f t="shared" si="11"/>
         <v>173.20647496791725</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96">
+        <f t="shared" si="12"/>
+        <v>30000.482970811743</v>
+      </c>
+      <c r="H96" s="2">
         <v>0.14380000000000001</v>
       </c>
-      <c r="H96" s="2">
+      <c r="I96" s="2">
         <f t="shared" si="14"/>
         <v>2.8760000000000001E-2</v>
       </c>
-      <c r="I96" s="2">
-        <f t="shared" si="12"/>
+      <c r="J96" s="2">
+        <f>E96*0.000000002576354</f>
         <v>2.8192691437856E-2</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="2">
         <v>172</v>
       </c>
@@ -3649,19 +3725,23 @@
         <f t="shared" si="11"/>
         <v>178.8613417443789</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97">
+        <f t="shared" si="12"/>
+        <v>31991.3795705995</v>
+      </c>
+      <c r="H97" s="2">
         <v>0.15310000000000001</v>
       </c>
-      <c r="H97" s="2">
+      <c r="I97" s="2">
         <f t="shared" si="14"/>
         <v>3.0620000000000001E-2</v>
       </c>
-      <c r="I97" s="2">
-        <f t="shared" si="12"/>
+      <c r="J97" s="2">
+        <f>E97*0.000000002576354</f>
         <v>3.0063619101824E-2</v>
       </c>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="2">
         <v>175</v>
       </c>
@@ -3676,19 +3756,23 @@
         <f t="shared" si="11"/>
         <v>191.37535248117823</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98">
+        <f t="shared" si="12"/>
+        <v>36624.525537295209</v>
+      </c>
+      <c r="H98" s="2">
         <v>0.16880000000000001</v>
       </c>
-      <c r="H98" s="2">
+      <c r="I98" s="2">
         <f t="shared" si="14"/>
         <v>3.3759999999999998E-2</v>
       </c>
-      <c r="I98" s="2">
-        <f t="shared" si="12"/>
+      <c r="J98" s="2">
+        <f>E98*0.000000002576354</f>
         <v>3.4417577494849999E-2</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C99" s="2">
         <v>177</v>
       </c>
@@ -3703,19 +3787,23 @@
         <f t="shared" si="11"/>
         <v>196.61134023716122</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99">
+        <f t="shared" si="12"/>
+        <v>38656.019109852772</v>
+      </c>
+      <c r="H99" s="2">
         <v>0.1719</v>
       </c>
-      <c r="H99" s="2">
+      <c r="I99" s="2">
         <f t="shared" si="14"/>
         <v>3.4380000000000001E-2</v>
       </c>
-      <c r="I99" s="2">
-        <f t="shared" si="12"/>
+      <c r="J99" s="2">
+        <f>E99*0.000000002576354</f>
         <v>3.632665580885E-2</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="2">
         <v>180</v>
       </c>
@@ -3730,19 +3818,23 @@
         <f t="shared" si="11"/>
         <v>205.04128052429385</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100">
+        <f t="shared" si="12"/>
+        <v>42041.926719042167</v>
+      </c>
+      <c r="H100" s="2">
         <v>0.20630000000000001</v>
       </c>
-      <c r="H100" s="2">
+      <c r="I100" s="2">
         <f t="shared" si="14"/>
         <v>4.1260000000000005E-2</v>
       </c>
-      <c r="I100" s="2">
-        <f t="shared" si="12"/>
+      <c r="J100" s="2">
+        <f>E100*0.000000002576354</f>
         <v>3.9508532865824002E-2</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="2">
         <v>182</v>
       </c>
@@ -3757,19 +3849,23 @@
         <f t="shared" si="11"/>
         <v>211.79570472951187</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101">
+        <f t="shared" si="12"/>
+        <v>44857.420541870575</v>
+      </c>
+      <c r="H101" s="2">
         <v>0.21249999999999999</v>
       </c>
-      <c r="H101" s="2">
+      <c r="I101" s="2">
         <f t="shared" si="14"/>
         <v>4.2499999999999996E-2</v>
       </c>
-      <c r="I101" s="2">
-        <f t="shared" si="12"/>
+      <c r="J101" s="2">
+        <f>E101*0.000000002576354</f>
         <v>4.2154368556850001E-2</v>
       </c>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="2">
         <v>185</v>
       </c>
@@ -3784,19 +3880,23 @@
         <f t="shared" si="11"/>
         <v>222.00588085367872</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102">
+        <f t="shared" si="12"/>
+        <v>49286.611133617793</v>
+      </c>
+      <c r="H102" s="2">
         <v>0.23130000000000001</v>
       </c>
-      <c r="H102" s="2">
+      <c r="I102" s="2">
         <f t="shared" si="14"/>
         <v>4.6260000000000003E-2</v>
       </c>
-      <c r="I102" s="2">
-        <f t="shared" si="12"/>
+      <c r="J102" s="2">
+        <f>E102*0.000000002576354</f>
         <v>4.6316661670400001E-2</v>
       </c>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="F103" s="2"/>

--- a/Tests/Thurst Test/MotorTest.xlsx
+++ b/Tests/Thurst Test/MotorTest.xlsx
@@ -398,11 +398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174385792"/>
-        <c:axId val="175440256"/>
+        <c:axId val="144623872"/>
+        <c:axId val="144625664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174385792"/>
+        <c:axId val="144623872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,12 +412,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175440256"/>
+        <c:crossAx val="144625664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175440256"/>
+        <c:axId val="144625664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,14 +428,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174385792"/>
+        <c:crossAx val="144623872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -595,11 +594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175477504"/>
-        <c:axId val="175479040"/>
+        <c:axId val="144916864"/>
+        <c:axId val="144918400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175477504"/>
+        <c:axId val="144916864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,12 +608,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175479040"/>
+        <c:crossAx val="144918400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175479040"/>
+        <c:axId val="144918400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175477504"/>
+        <c:crossAx val="144916864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -872,11 +871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175978368"/>
-        <c:axId val="175979904"/>
+        <c:axId val="144935552"/>
+        <c:axId val="144953728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175978368"/>
+        <c:axId val="144935552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,12 +885,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175979904"/>
+        <c:crossAx val="144953728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175979904"/>
+        <c:axId val="144953728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175978368"/>
+        <c:crossAx val="144935552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1220,11 +1219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175986560"/>
-        <c:axId val="175988096"/>
+        <c:axId val="200286976"/>
+        <c:axId val="200288512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175986560"/>
+        <c:axId val="200286976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,12 +1233,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175988096"/>
+        <c:crossAx val="200288512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175988096"/>
+        <c:axId val="200288512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175986560"/>
+        <c:crossAx val="200286976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1448,11 +1447,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216855296"/>
-        <c:axId val="216778624"/>
+        <c:axId val="200323456"/>
+        <c:axId val="200324992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216855296"/>
+        <c:axId val="200323456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,12 +1461,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216778624"/>
+        <c:crossAx val="200324992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216778624"/>
+        <c:axId val="200324992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216855296"/>
+        <c:crossAx val="200323456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1553,31 +1552,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23120.140485815889</c:v>
+                  <c:v>92480.561943263558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26619.02490827319</c:v>
+                  <c:v>106476.09963309276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30000.482970811743</c:v>
+                  <c:v>120001.93188324697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31991.3795705995</c:v>
+                  <c:v>127965.518282398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36624.525537295209</c:v>
+                  <c:v>146498.10214918084</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38656.019109852772</c:v>
+                  <c:v>154624.07643941109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42041.926719042167</c:v>
+                  <c:v>168167.70687616867</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44857.420541870575</c:v>
+                  <c:v>179429.6821674823</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49286.611133617793</c:v>
+                  <c:v>197146.44453447117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,11 +1630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207590528"/>
-        <c:axId val="201684480"/>
+        <c:axId val="200416256"/>
+        <c:axId val="200442624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207590528"/>
+        <c:axId val="200416256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,12 +1644,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201684480"/>
+        <c:crossAx val="200442624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201684480"/>
+        <c:axId val="200442624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207590528"/>
+        <c:crossAx val="200416256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2157,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I93" activeCellId="1" sqref="G93:G102 I93:I102"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" activeCellId="1" sqref="C94:C102 F94:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2985,7 +2984,7 @@
         <v>86652.067064200222</v>
       </c>
       <c r="G49">
-        <f>D49^2</f>
+        <f t="shared" ref="G49:G63" si="6">D49^2</f>
         <v>7901721</v>
       </c>
       <c r="H49" s="2">
@@ -3011,26 +3010,26 @@
         <v>2995</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" ref="E50:E63" si="6">D50*PI()/30</f>
+        <f t="shared" ref="E50:E63" si="7">D50*PI()/30</f>
         <v>313.63566658338101</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F63" si="7">E50^2</f>
+        <f t="shared" ref="F50:F63" si="8">E50^2</f>
         <v>98367.331353201735</v>
       </c>
       <c r="G50">
-        <f>D50^2</f>
+        <f t="shared" si="6"/>
         <v>8970025</v>
       </c>
       <c r="H50" s="2">
         <v>129</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" ref="I50:I56" si="8">H50*0.001*9.82</f>
+        <f t="shared" ref="I50:I56" si="9">H50*0.001*9.82</f>
         <v>1.26678</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50:J63" si="9">G50*0.000000145765</f>
+        <f t="shared" ref="J50:J63" si="10">G50*0.000000145765</f>
         <v>1.3075156941250001</v>
       </c>
     </row>
@@ -3045,26 +3044,26 @@
         <v>3195</v>
       </c>
       <c r="E51" s="2">
+        <f t="shared" si="7"/>
+        <v>334.57961760731297</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="8"/>
+        <v>111943.52051825577</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="6"/>
-        <v>334.57961760731297</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="7"/>
-        <v>111943.52051825577</v>
-      </c>
-      <c r="G51">
-        <f>D51^2</f>
         <v>10208025</v>
       </c>
       <c r="H51" s="2">
         <v>150</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4730000000000001</v>
       </c>
       <c r="J51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.487972764125</v>
       </c>
     </row>
@@ -3079,26 +3078,26 @@
         <v>3287</v>
       </c>
       <c r="E52" s="2">
+        <f t="shared" si="7"/>
+        <v>344.21383507832167</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="8"/>
+        <v>118483.16425932603</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="6"/>
-        <v>344.21383507832167</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="7"/>
-        <v>118483.16425932603</v>
-      </c>
-      <c r="G52">
-        <f>D52^2</f>
         <v>10804369</v>
       </c>
       <c r="H52" s="2">
         <v>160</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5712000000000002</v>
       </c>
       <c r="J52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5748988472850001</v>
       </c>
     </row>
@@ -3113,26 +3112,26 @@
         <v>3493</v>
       </c>
       <c r="E53" s="2">
+        <f t="shared" si="7"/>
+        <v>365.78610463297161</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>133799.47434256325</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="6"/>
-        <v>365.78610463297161</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="7"/>
-        <v>133799.47434256325</v>
-      </c>
-      <c r="G53">
-        <f>D53^2</f>
         <v>12201049</v>
       </c>
       <c r="H53" s="3">
         <v>182</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7872399999999999</v>
       </c>
       <c r="J53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7784859074850001</v>
       </c>
     </row>
@@ -3147,26 +3146,26 @@
         <v>3609</v>
       </c>
       <c r="E54" s="2">
+        <f t="shared" si="7"/>
+        <v>377.9335962268521</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>142833.80315696128</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="6"/>
-        <v>377.9335962268521</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="7"/>
-        <v>142833.80315696128</v>
-      </c>
-      <c r="G54">
-        <f>D54^2</f>
         <v>13024881</v>
       </c>
       <c r="H54" s="2">
         <v>195</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9149</v>
       </c>
       <c r="J54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8985717789650001</v>
       </c>
     </row>
@@ -3181,26 +3180,26 @@
         <v>3765</v>
       </c>
       <c r="E55" s="2">
+        <f t="shared" si="7"/>
+        <v>394.26987802551901</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>155448.73671825763</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="6"/>
-        <v>394.26987802551901</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="7"/>
-        <v>155448.73671825763</v>
-      </c>
-      <c r="G55">
-        <f>D55^2</f>
         <v>14175225</v>
       </c>
       <c r="H55" s="2">
         <v>215</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1113</v>
       </c>
       <c r="J55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0662516721249999</v>
       </c>
     </row>
@@ -3215,26 +3214,26 @@
         <v>3888</v>
       </c>
       <c r="E56" s="2">
+        <f t="shared" si="7"/>
+        <v>407.15040790523722</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>165771.45465740105</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="6"/>
-        <v>407.15040790523722</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="7"/>
-        <v>165771.45465740105</v>
-      </c>
-      <c r="G56">
-        <f>D56^2</f>
         <v>15116544</v>
       </c>
       <c r="H56" s="2">
         <v>228</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2389600000000001</v>
       </c>
       <c r="J56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2034630361600001</v>
       </c>
     </row>
@@ -3249,26 +3248,26 @@
         <v>4060</v>
       </c>
       <c r="E57" s="2">
+        <f t="shared" si="7"/>
+        <v>425.16220578581868</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="8"/>
+        <v>180762.90122866284</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="6"/>
-        <v>425.16220578581868</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="7"/>
-        <v>180762.90122866284</v>
-      </c>
-      <c r="G57">
-        <f>D57^2</f>
         <v>16483600</v>
       </c>
       <c r="H57" s="2">
         <v>250</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" ref="I57:I63" si="10">H57*0.001*9.82</f>
+        <f t="shared" ref="I57:I63" si="11">H57*0.001*9.82</f>
         <v>2.4550000000000001</v>
       </c>
       <c r="J57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4027319540000001</v>
       </c>
     </row>
@@ -3283,26 +3282,26 @@
         <v>2240</v>
       </c>
       <c r="E58" s="2">
+        <f t="shared" si="7"/>
+        <v>234.57225146803788</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="8"/>
+        <v>55024.141158784398</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="6"/>
-        <v>234.57225146803788</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="7"/>
-        <v>55024.141158784398</v>
-      </c>
-      <c r="G58">
-        <f>D58^2</f>
         <v>5017600</v>
       </c>
       <c r="H58" s="2">
         <v>69</v>
       </c>
       <c r="I58" s="2">
+        <f t="shared" si="11"/>
+        <v>0.67758000000000007</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="10"/>
-        <v>0.67758000000000007</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="9"/>
         <v>0.73139046400000007</v>
       </c>
     </row>
@@ -3317,26 +3316,26 @@
         <v>2305</v>
       </c>
       <c r="E59" s="2">
+        <f t="shared" si="7"/>
+        <v>241.37903555081579</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="8"/>
+        <v>58263.838803441991</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="6"/>
-        <v>241.37903555081579</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="7"/>
-        <v>58263.838803441991</v>
-      </c>
-      <c r="G59">
-        <f>D59^2</f>
         <v>5313025</v>
       </c>
       <c r="H59" s="2">
         <v>74</v>
       </c>
       <c r="I59" s="2">
+        <f t="shared" si="11"/>
+        <v>0.72667999999999999</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="10"/>
-        <v>0.72667999999999999</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="9"/>
         <v>0.77445308912499999</v>
       </c>
     </row>
@@ -3351,26 +3350,26 @@
         <v>2445</v>
       </c>
       <c r="E60" s="2">
+        <f t="shared" si="7"/>
+        <v>256.03980126756812</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>65556.379833135783</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="6"/>
-        <v>256.03980126756812</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="7"/>
-        <v>65556.379833135783</v>
-      </c>
-      <c r="G60">
-        <f>D60^2</f>
         <v>5978025</v>
       </c>
       <c r="H60" s="2">
         <v>85</v>
       </c>
       <c r="I60" s="2">
+        <f t="shared" si="11"/>
+        <v>0.83470000000000011</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="10"/>
-        <v>0.83470000000000011</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="9"/>
         <v>0.87138681412500008</v>
       </c>
     </row>
@@ -3385,26 +3384,26 @@
         <v>2495</v>
       </c>
       <c r="E61" s="2">
+        <f t="shared" si="7"/>
+        <v>261.27578902355111</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>68265.037929879196</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="6"/>
-        <v>261.27578902355111</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="7"/>
-        <v>68265.037929879196</v>
-      </c>
-      <c r="G61">
-        <f>D61^2</f>
         <v>6225025</v>
       </c>
       <c r="H61" s="2">
         <v>89</v>
       </c>
       <c r="I61" s="2">
+        <f t="shared" si="11"/>
+        <v>0.87397999999999998</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="10"/>
-        <v>0.87397999999999998</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="9"/>
         <v>0.90739076912500005</v>
       </c>
     </row>
@@ -3419,26 +3418,26 @@
         <v>2585</v>
       </c>
       <c r="E62" s="2">
+        <f t="shared" si="7"/>
+        <v>270.70056698432052</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="8"/>
+        <v>73278.796965632602</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="6"/>
-        <v>270.70056698432052</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="7"/>
-        <v>73278.796965632602</v>
-      </c>
-      <c r="G62">
-        <f>D62^2</f>
         <v>6682225</v>
       </c>
       <c r="H62" s="2">
         <v>97</v>
       </c>
       <c r="I62" s="2">
+        <f t="shared" si="11"/>
+        <v>0.95254000000000005</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="10"/>
-        <v>0.95254000000000005</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="9"/>
         <v>0.97403452712500005</v>
       </c>
     </row>
@@ -3453,26 +3452,26 @@
         <v>2665</v>
       </c>
       <c r="E63" s="2">
+        <f t="shared" si="7"/>
+        <v>279.07814739389329</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>77884.612352807628</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="6"/>
-        <v>279.07814739389329</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="7"/>
-        <v>77884.612352807628</v>
-      </c>
-      <c r="G63">
-        <f>D63^2</f>
         <v>7102225</v>
       </c>
       <c r="H63" s="2">
         <v>99</v>
       </c>
       <c r="I63" s="2">
+        <f t="shared" si="11"/>
+        <v>0.97218000000000004</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="10"/>
-        <v>0.97218000000000004</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="9"/>
         <v>1.0352558271250001</v>
       </c>
     </row>
@@ -3598,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" ref="F93:F102" si="11">D93*PI()/60</f>
+        <f t="shared" ref="F93:F102" si="12">D93*PI()/60</f>
         <v>0</v>
       </c>
       <c r="G93">
@@ -3613,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="2">
-        <f>E93*0.000000002576354</f>
+        <f t="shared" ref="J93:J102" si="13">E93*0.000000002576354</f>
         <v>0</v>
       </c>
     </row>
@@ -3629,12 +3628,12 @@
         <v>8433216</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="11"/>
-        <v>152.05308443374599</v>
+        <f>D94*PI()/30</f>
+        <v>304.10616886749199</v>
       </c>
       <c r="G94">
-        <f t="shared" ref="G94:G102" si="12">F94^2</f>
-        <v>23120.140485815889</v>
+        <f t="shared" ref="G94:G102" si="14">F94^2</f>
+        <v>92480.561943263558</v>
       </c>
       <c r="H94" s="2">
         <v>0.104</v>
@@ -3644,8 +3643,11 @@
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="J94" s="2">
-        <f>E94*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>2.1726949774464002E-2</v>
+      </c>
+      <c r="K94" s="2">
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
@@ -3656,27 +3658,30 @@
         <v>3116</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" ref="E95:E102" si="13">D95^2</f>
+        <f t="shared" ref="E95:E102" si="15">D95^2</f>
         <v>9709456</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="11"/>
-        <v>163.15337847642994</v>
+        <f>D95*PI()/30</f>
+        <v>326.30675695285987</v>
       </c>
       <c r="G95">
-        <f t="shared" si="12"/>
-        <v>26619.02490827319</v>
+        <f t="shared" si="14"/>
+        <v>106476.09963309276</v>
       </c>
       <c r="H95" s="2">
         <v>0.125</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" ref="I95:I102" si="14">H95/5</f>
+        <f t="shared" ref="I95:I102" si="16">H95/5</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J95" s="2">
-        <f>E95*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>2.5014995803424003E-2</v>
+      </c>
+      <c r="K95" s="2">
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
@@ -3687,30 +3692,33 @@
         <v>3308</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10942864</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="11"/>
-        <v>173.20647496791725</v>
+        <f t="shared" ref="F96:F102" si="17">D96*PI()/30</f>
+        <v>346.41294993583449</v>
       </c>
       <c r="G96">
-        <f t="shared" si="12"/>
-        <v>30000.482970811743</v>
+        <f t="shared" si="14"/>
+        <v>120001.93188324697</v>
       </c>
       <c r="H96" s="2">
         <v>0.14380000000000001</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.8760000000000001E-2</v>
       </c>
       <c r="J96" s="2">
-        <f>E96*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>2.8192691437856E-2</v>
       </c>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" s="2">
         <v>172</v>
       </c>
@@ -3718,30 +3726,33 @@
         <v>3416</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11669056</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="11"/>
-        <v>178.8613417443789</v>
+        <f t="shared" si="17"/>
+        <v>357.72268348875781</v>
       </c>
       <c r="G97">
-        <f t="shared" si="12"/>
-        <v>31991.3795705995</v>
+        <f t="shared" si="14"/>
+        <v>127965.518282398</v>
       </c>
       <c r="H97" s="2">
         <v>0.15310000000000001</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.0620000000000001E-2</v>
       </c>
       <c r="J97" s="2">
-        <f>E97*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>3.0063619101824E-2</v>
       </c>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" s="2">
         <v>175</v>
       </c>
@@ -3749,30 +3760,33 @@
         <v>3655</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13359025</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="11"/>
-        <v>191.37535248117823</v>
+        <f t="shared" si="17"/>
+        <v>382.75070496235645</v>
       </c>
       <c r="G98">
-        <f t="shared" si="12"/>
-        <v>36624.525537295209</v>
+        <f t="shared" si="14"/>
+        <v>146498.10214918084</v>
       </c>
       <c r="H98" s="2">
         <v>0.16880000000000001</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.3759999999999998E-2</v>
       </c>
       <c r="J98" s="2">
-        <f>E98*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>3.4417577494849999E-2</v>
       </c>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" s="2">
         <v>177</v>
       </c>
@@ -3780,30 +3794,33 @@
         <v>3755</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14100025</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="11"/>
-        <v>196.61134023716122</v>
+        <f t="shared" si="17"/>
+        <v>393.22268047432243</v>
       </c>
       <c r="G99">
-        <f t="shared" si="12"/>
-        <v>38656.019109852772</v>
+        <f t="shared" si="14"/>
+        <v>154624.07643941109</v>
       </c>
       <c r="H99" s="2">
         <v>0.1719</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.4380000000000001E-2</v>
       </c>
       <c r="J99" s="2">
-        <f>E99*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>3.632665580885E-2</v>
       </c>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" s="2">
         <v>180</v>
       </c>
@@ -3811,30 +3828,33 @@
         <v>3916</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15335056</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="11"/>
-        <v>205.04128052429385</v>
+        <f t="shared" si="17"/>
+        <v>410.08256104858771</v>
       </c>
       <c r="G100">
-        <f t="shared" si="12"/>
-        <v>42041.926719042167</v>
+        <f t="shared" si="14"/>
+        <v>168167.70687616867</v>
       </c>
       <c r="H100" s="2">
         <v>0.20630000000000001</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.1260000000000005E-2</v>
       </c>
       <c r="J100" s="2">
-        <f>E100*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>3.9508532865824002E-2</v>
       </c>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" s="2">
         <v>182</v>
       </c>
@@ -3842,30 +3862,33 @@
         <v>4045</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16362025</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="11"/>
-        <v>211.79570472951187</v>
+        <f t="shared" si="17"/>
+        <v>423.59140945902374</v>
       </c>
       <c r="G101">
-        <f t="shared" si="12"/>
-        <v>44857.420541870575</v>
+        <f t="shared" si="14"/>
+        <v>179429.6821674823</v>
       </c>
       <c r="H101" s="2">
         <v>0.21249999999999999</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.2499999999999996E-2</v>
       </c>
       <c r="J101" s="2">
-        <f>E101*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>4.2154368556850001E-2</v>
       </c>
-    </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" s="2">
         <v>185</v>
       </c>
@@ -3873,30 +3896,33 @@
         <v>4240</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17977600</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="11"/>
-        <v>222.00588085367872</v>
+        <f t="shared" si="17"/>
+        <v>444.01176170735744</v>
       </c>
       <c r="G102">
-        <f t="shared" si="12"/>
-        <v>49286.611133617793</v>
+        <f t="shared" si="14"/>
+        <v>197146.44453447117</v>
       </c>
       <c r="H102" s="2">
         <v>0.23130000000000001</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.6260000000000003E-2</v>
       </c>
       <c r="J102" s="2">
-        <f>E102*0.000000002576354</f>
+        <f t="shared" si="13"/>
         <v>4.6316661670400001E-2</v>
       </c>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="F103" s="2"/>
